--- a/Perseverance/data/level2.xlsx
+++ b/Perseverance/data/level2.xlsx
@@ -544,7 +544,75 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -840,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3830,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="CK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR10">
         <v>0</v>
@@ -4114,43 +4182,43 @@
         <v>0</v>
       </c>
       <c r="CE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ11">
         <v>0</v>
       </c>
       <c r="CK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR11">
         <v>0</v>
@@ -4398,61 +4466,61 @@
         <v>0</v>
       </c>
       <c r="BY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD12">
         <v>0</v>
       </c>
       <c r="CE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ12">
         <v>0</v>
       </c>
       <c r="CK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR12">
         <v>0</v>
@@ -4481,28 +4549,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4700,61 +4768,61 @@
         <v>0</v>
       </c>
       <c r="BY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD13">
         <v>0</v>
       </c>
       <c r="CE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ13">
         <v>0</v>
       </c>
       <c r="CK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR13">
         <v>0</v>
@@ -4774,10 +4842,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:FD13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
